--- a/biology/Botanique/Pseudocharaciopsidaceae/Pseudocharaciopsidaceae.xlsx
+++ b/biology/Botanique/Pseudocharaciopsidaceae/Pseudocharaciopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pseudocharaciopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pseudocharaciopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Pseudocharaciopsis, de pseudo, faux, et characiopsis, en référence au genre éponyme[note 1], littéralement « faux Characiopsis ». 
 </t>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pseudocharaciopsis a été intégré à la famille des Characiopsidaceae Pascher 1937, genre qui est devenu synonyme de Characiopsis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudocharaciopsis a été intégré à la famille des Characiopsidaceae Pascher 1937, genre qui est devenu synonyme de Characiopsis.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,11 +617,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 mars 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 mars 2022) :
 aucun genre
-Selon  World Register of Marine Species                               (28 mars 2022)[4]
+Selon  World Register of Marine Species                               (28 mars 2022)
 Botryochloropsis H.R.Preisig &amp; C.Wilhelm, 1989[note 2]
 Ellipsoidion Pascher, 1938[note 3]
 Pseudocharaciopsis K.W.Lee &amp; Bold, 1973[note 4]</t>
